--- a/Documentation/Note d'équipe/critical-path-method.xlsx
+++ b/Documentation/Note d'équipe/critical-path-method.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_8\6DY\GrandProphete\GrandsProphetes\Documentation\Note d'équipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02203CB-4A58-4A3C-B544-246599456FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18A9165-70DC-41C2-8BD4-29F514A03023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -741,6 +741,12 @@
   </si>
   <si>
     <t>Hours to Completion</t>
+  </si>
+  <si>
+    <t>Complétion</t>
+  </si>
+  <si>
+    <t>GP33 - Intégration</t>
   </si>
 </sst>
 </file>
@@ -1816,6 +1822,12 @@
                 <c:pt idx="16">
                   <c:v>GP35 - Analyse</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>Complétion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>GP33 - Intégration</c:v>
+                </c:pt>
                 <c:pt idx="24">
                   <c:v>Finish</c:v>
                 </c:pt>
@@ -1880,10 +1892,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>27.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -1901,7 +1913,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21.75</c:v>
+                  <c:v>27.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,6 +2003,12 @@
                 <c:pt idx="16">
                   <c:v>GP35 - Analyse</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>Complétion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>GP33 - Intégration</c:v>
+                </c:pt>
                 <c:pt idx="24">
                   <c:v>Finish</c:v>
                 </c:pt>
@@ -2058,7 +2076,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -2166,6 +2184,12 @@
                 <c:pt idx="16">
                   <c:v>GP35 - Analyse</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>Complétion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>GP33 - Intégration</c:v>
+                </c:pt>
                 <c:pt idx="24">
                   <c:v>Finish</c:v>
                 </c:pt>
@@ -2341,6 +2365,12 @@
                 <c:pt idx="16">
                   <c:v>GP35 - Analyse</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>Complétion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>GP33 - Intégration</c:v>
+                </c:pt>
                 <c:pt idx="24">
                   <c:v>Finish</c:v>
                 </c:pt>
@@ -2408,7 +2438,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -2511,6 +2541,12 @@
                 <c:pt idx="16">
                   <c:v>GP35 - Analyse</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>Complétion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>GP33 - Intégration</c:v>
+                </c:pt>
                 <c:pt idx="24">
                   <c:v>Finish</c:v>
                 </c:pt>
@@ -2524,10 +2560,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -2551,7 +2587,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#N/A</c:v>
@@ -2560,7 +2596,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>#N/A</c:v>
@@ -2575,7 +2611,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>#N/A</c:v>
@@ -2596,7 +2632,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3257,8 +3293,8 @@
   </sheetPr>
   <dimension ref="A1:CI34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3332,7 +3368,7 @@
       </c>
       <c r="J4" s="21">
         <f>P33</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M4" s="61"/>
       <c r="N4" t="s">
@@ -3357,8 +3393,7 @@
     </row>
     <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B6" s="23">
-        <f ca="1">WORKDAY(B4,ROUNDUP(J4,0),holidays)</f>
-        <v>45000</v>
+        <v>44980</v>
       </c>
       <c r="I6" s="67" t="s">
         <v>66</v>
@@ -3812,7 +3847,7 @@
       </c>
       <c r="CH9" s="6">
         <f>IF(B9="",NA(),IF(L9=0,$M$33/40,NA()))</f>
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:87" x14ac:dyDescent="0.25">
@@ -3953,9 +3988,9 @@
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="AS10" s="4" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
+      <c r="AS10" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>410</v>
       </c>
       <c r="AT10" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3977,9 +4012,9 @@
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="AY10" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>1000</v>
+      <c r="AY10" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
       </c>
       <c r="AZ10" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4053,9 +4088,9 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="BR10" s="4" t="str">
+      <c r="BR10" s="4">
         <f t="shared" ca="1" si="29"/>
-        <v/>
+        <v>22</v>
       </c>
       <c r="BS10" s="4" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -4077,9 +4112,9 @@
         <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
-      <c r="BX10" s="4">
+      <c r="BX10" s="4" t="str">
         <f t="shared" ca="1" si="35"/>
-        <v>22</v>
+        <v/>
       </c>
       <c r="BZ10" s="6">
         <f t="shared" ref="BZ10:BZ33" si="46">IF(B10="",NA(),IF(L10=0,M10-0.25,M10))</f>
@@ -4115,7 +4150,7 @@
       </c>
       <c r="CH10" s="6">
         <f t="shared" ref="CH10:CH33" si="47">IF(B10="",NA(),IF(L10=0,$M$33/40,NA()))</f>
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:87" x14ac:dyDescent="0.25">
@@ -6289,10 +6324,10 @@
         <v>58</v>
       </c>
       <c r="C18" s="19">
+        <v>210</v>
+      </c>
+      <c r="D18" s="19">
         <v>220</v>
-      </c>
-      <c r="D18" s="19">
-        <v>210</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -6327,11 +6362,11 @@
       </c>
       <c r="T18" s="4">
         <f t="shared" si="54"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="U18" s="4">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="V18" s="4">
         <f t="shared" si="5"/>
@@ -6421,9 +6456,9 @@
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="AS18" s="4" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
+      <c r="AS18" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>410</v>
       </c>
       <c r="AT18" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6445,9 +6480,9 @@
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="AY18" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>1000</v>
+      <c r="AY18" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
       </c>
       <c r="AZ18" s="4" t="str">
         <f t="shared" ca="1" si="55"/>
@@ -6521,9 +6556,9 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="BR18" s="4" t="str">
+      <c r="BR18" s="4">
         <f t="shared" ca="1" si="29"/>
-        <v/>
+        <v>22</v>
       </c>
       <c r="BS18" s="4" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -6545,9 +6580,9 @@
         <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
-      <c r="BX18" s="4">
+      <c r="BX18" s="4" t="str">
         <f t="shared" ca="1" si="35"/>
-        <v>22</v>
+        <v/>
       </c>
       <c r="BZ18" s="6">
         <f t="shared" si="46"/>
@@ -6583,7 +6618,7 @@
       </c>
       <c r="CH18" s="6">
         <f t="shared" si="47"/>
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="19" spans="1:86" x14ac:dyDescent="0.25">
@@ -7348,9 +7383,9 @@
         <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
-      <c r="AS21" s="4" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
+      <c r="AS21" s="4">
+        <f t="shared" ca="1" si="64"/>
+        <v>410</v>
       </c>
       <c r="AT21" s="4" t="str">
         <f t="shared" ca="1" si="64"/>
@@ -7372,9 +7407,9 @@
         <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
-      <c r="AY21" s="4">
-        <f t="shared" ca="1" si="64"/>
-        <v>1000</v>
+      <c r="AY21" s="4" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
       </c>
       <c r="AZ21" s="4" t="str">
         <f t="shared" ca="1" si="55"/>
@@ -7448,9 +7483,9 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="BR21" s="4" t="str">
+      <c r="BR21" s="4">
         <f t="shared" ca="1" si="29"/>
-        <v/>
+        <v>22</v>
       </c>
       <c r="BS21" s="4" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -7472,9 +7507,9 @@
         <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
-      <c r="BX21" s="4">
+      <c r="BX21" s="4" t="str">
         <f t="shared" ca="1" si="35"/>
-        <v>22</v>
+        <v/>
       </c>
       <c r="BZ21" s="6">
         <f t="shared" si="46"/>
@@ -7510,7 +7545,7 @@
       </c>
       <c r="CH21" s="6">
         <f t="shared" si="47"/>
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="22" spans="1:86" x14ac:dyDescent="0.25">
@@ -8750,9 +8785,15 @@
       </c>
     </row>
     <row r="26" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="19"/>
+      <c r="A26" s="19">
+        <v>400</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="19">
+        <v>410</v>
+      </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -8767,19 +8808,19 @@
       </c>
       <c r="M26" s="10">
         <f t="shared" ref="M26:M32" si="66">MAX(T26:Y26)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" ref="N26:N32" si="67">M26+L26</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" ref="O26:O32" ca="1" si="68">IF(P26-L26&lt;0,0,P26-L26)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" ref="P26:P32" ca="1" si="69">MIN(AZ26:BX26)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" ref="Q26:Q32" ca="1" si="70">IF(ROUND(P26-N26,5)&lt;0,0,ROUND(P26-N26,5))</f>
@@ -8787,7 +8828,7 @@
       </c>
       <c r="T26" s="4">
         <f t="shared" ref="T26:T32" si="71">IF(C26="",0,INDEX($N$9:$N$33,MATCH(C26,$A$9:$A$33,0)))</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="U26" s="4">
         <f t="shared" ref="U26:U32" si="72">IF(D26="",0,INDEX($N$9:$N$33,MATCH(D26,$A$9:$A$33,0)))</f>
@@ -8905,9 +8946,9 @@
         <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
-      <c r="AY26" s="4" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
+      <c r="AY26" s="4">
+        <f t="shared" ca="1" si="64"/>
+        <v>1000</v>
       </c>
       <c r="AZ26" s="4" t="str">
         <f t="shared" ref="AZ26:AZ32" ca="1" si="77">IF(AA26="","",INDEX($O$9:$O$33,MATCH(AA26,$A$9:$A$33,0)))</f>
@@ -9005,13 +9046,13 @@
         <f t="shared" ref="BW26:BW32" ca="1" si="100">IF(AX26="","",INDEX($O$9:$O$33,MATCH(AX26,$A$9:$A$33,0)))</f>
         <v/>
       </c>
-      <c r="BX26" s="4" t="str">
+      <c r="BX26" s="4">
         <f t="shared" ref="BX26:BX32" ca="1" si="101">IF(AY26="","",INDEX($O$9:$O$33,MATCH(AY26,$A$9:$A$33,0)))</f>
-        <v/>
-      </c>
-      <c r="BZ26" s="6" t="e">
+        <v>28</v>
+      </c>
+      <c r="BZ26" s="6">
         <f t="shared" si="46"/>
-        <v>#N/A</v>
+        <v>27.75</v>
       </c>
       <c r="CA26" s="7" t="e">
         <f t="shared" ref="CA26:CA32" si="102">IF(B26="",NA(),IF(L26=0,NA(),IF(Q26&lt;=0.01,L26,NA())))</f>
@@ -9041,42 +9082,58 @@
         <f t="shared" ref="CG26:CG32" si="108">IF(B26="",NA(),IF(L26=0,NA(),Q26))</f>
         <v>#N/A</v>
       </c>
-      <c r="CH26" s="6" t="e">
+      <c r="CH26" s="6">
         <f t="shared" si="47"/>
-        <v>#N/A</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="27" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="A27" s="19">
+        <v>410</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="19">
+        <v>100</v>
+      </c>
+      <c r="D27" s="19">
+        <v>200</v>
+      </c>
+      <c r="E27" s="19">
+        <v>300</v>
+      </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
+      <c r="I27" s="28">
+        <v>4</v>
+      </c>
+      <c r="J27" s="18">
+        <v>6</v>
+      </c>
+      <c r="K27" s="18">
+        <v>8</v>
+      </c>
       <c r="L27" s="10">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" ca="1" si="68"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" ca="1" si="69"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" ca="1" si="70"/>
@@ -9084,15 +9141,15 @@
       </c>
       <c r="T27" s="4">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U27" s="4">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="V27" s="4">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W27" s="4">
         <f t="shared" si="74"/>
@@ -9174,9 +9231,9 @@
         <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
-      <c r="AR27" s="4" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
+      <c r="AR27" s="4">
+        <f t="shared" ca="1" si="64"/>
+        <v>400</v>
       </c>
       <c r="AS27" s="4" t="str">
         <f t="shared" ca="1" si="64"/>
@@ -9274,9 +9331,9 @@
         <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
-      <c r="BQ27" s="4" t="str">
+      <c r="BQ27" s="4">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>28</v>
       </c>
       <c r="BR27" s="4" t="str">
         <f t="shared" ca="1" si="95"/>
@@ -9306,37 +9363,37 @@
         <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
-      <c r="BZ27" s="6" t="e">
+      <c r="BZ27" s="6">
         <f t="shared" si="46"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CA27" s="7" t="e">
-        <f t="shared" si="102"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CB27" s="7" t="e">
-        <f t="shared" si="103"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CC27" s="7" t="e">
-        <f t="shared" si="104"/>
-        <v>#N/A</v>
+        <v>22</v>
+      </c>
+      <c r="CA27" s="7">
+        <f t="shared" ca="1" si="102"/>
+        <v>6</v>
+      </c>
+      <c r="CB27" s="7">
+        <f t="shared" ca="1" si="103"/>
+        <v>2</v>
+      </c>
+      <c r="CC27" s="7">
+        <f t="shared" ca="1" si="104"/>
+        <v>2</v>
       </c>
       <c r="CD27" s="7" t="e">
-        <f t="shared" si="105"/>
+        <f t="shared" ca="1" si="105"/>
         <v>#N/A</v>
       </c>
       <c r="CE27" s="7" t="e">
-        <f t="shared" si="106"/>
+        <f t="shared" ca="1" si="106"/>
         <v>#N/A</v>
       </c>
       <c r="CF27" s="7" t="e">
-        <f t="shared" si="107"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CG27" s="6" t="e">
-        <f t="shared" si="108"/>
-        <v>#N/A</v>
+        <f t="shared" ca="1" si="107"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CG27" s="6">
+        <f t="shared" ca="1" si="108"/>
+        <v>0</v>
       </c>
       <c r="CH27" s="6" t="e">
         <f t="shared" si="47"/>
@@ -10836,14 +10893,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="19">
-        <v>100</v>
-      </c>
-      <c r="D33" s="19">
-        <v>200</v>
-      </c>
-      <c r="E33" s="19">
-        <v>300</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
@@ -10856,19 +10909,19 @@
       </c>
       <c r="M33" s="10">
         <f t="shared" si="43"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N33" s="10">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O33" s="10">
         <f t="shared" si="44"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P33" s="11">
         <f>N33</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q33" s="10">
         <f t="shared" si="45"/>
@@ -10876,15 +10929,15 @@
       </c>
       <c r="T33" s="4">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="U33" s="4">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="V33" s="4">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W33" s="4">
         <f t="shared" si="6"/>
@@ -11100,7 +11153,7 @@
       </c>
       <c r="BZ33" s="6">
         <f t="shared" si="46"/>
-        <v>21.75</v>
+        <v>27.75</v>
       </c>
       <c r="CA33" s="7" t="e">
         <f t="shared" si="36"/>
@@ -11132,7 +11185,7 @@
       </c>
       <c r="CH33" s="6">
         <f t="shared" si="47"/>
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="34" spans="1:86" ht="15" x14ac:dyDescent="0.25">

--- a/Documentation/Note d'équipe/critical-path-method.xlsx
+++ b/Documentation/Note d'équipe/critical-path-method.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_8\6DY\GrandProphete\GrandsProphetes\Documentation\Note d'équipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18A9165-70DC-41C2-8BD4-29F514A03023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D78D91-9126-424B-AC2F-AE4AE80A4DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPM" sheetId="3" r:id="rId1"/>
@@ -3293,7 +3293,7 @@
   </sheetPr>
   <dimension ref="A1:CI34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Note d'équipe/critical-path-method.xlsx
+++ b/Documentation/Note d'équipe/critical-path-method.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_8\6DY\GrandProphete\GrandsProphetes\Documentation\Note d'équipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D78D91-9126-424B-AC2F-AE4AE80A4DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78B9754-E6E8-4022-BE93-0B6B8ABE384B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPM" sheetId="3" r:id="rId1"/>
@@ -3293,7 +3293,7 @@
   </sheetPr>
   <dimension ref="A1:CI34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
